--- a/xlsx-dmn-converter/src/test/resources/test2.xlsx
+++ b/xlsx-dmn-converter/src/test/resources/test2.xlsx
@@ -5,14 +5,14 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\camunda\repos\other\camunda-dmn-xslx\xlsx-dmn-converter\src\test\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\camundaBPM\src\PLAYGROUND\camunda-dmn-xlsx\xlsx-dmn-converter\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18636" windowHeight="6240"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18630" windowHeight="6240"/>
   </bookViews>
   <sheets>
-    <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
+    <sheet name="Tabelle2" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -377,9 +377,9 @@
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -393,7 +393,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -407,7 +407,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -421,7 +421,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -435,7 +435,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
